--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Jam3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.42897436336294</v>
+        <v>78.14483633333333</v>
       </c>
       <c r="H2">
-        <v>5.42897436336294</v>
+        <v>234.434509</v>
       </c>
       <c r="I2">
-        <v>0.5034841601939593</v>
+        <v>0.8749092620517618</v>
       </c>
       <c r="J2">
-        <v>0.5034841601939593</v>
+        <v>0.8749092620517619</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.38447504427172</v>
+        <v>12.007177</v>
       </c>
       <c r="N2">
-        <v>7.38447504427172</v>
+        <v>36.021531</v>
       </c>
       <c r="O2">
-        <v>0.1201481892523316</v>
+        <v>0.1771030991518578</v>
       </c>
       <c r="P2">
-        <v>0.1201481892523316</v>
+        <v>0.1771030991518577</v>
       </c>
       <c r="Q2">
-        <v>40.09012570224458</v>
+        <v>938.2988814903642</v>
       </c>
       <c r="R2">
-        <v>40.09012570224458</v>
+        <v>8444.689933413278</v>
       </c>
       <c r="S2">
-        <v>0.06049271016453505</v>
+        <v>0.1549491417860319</v>
       </c>
       <c r="T2">
-        <v>0.06049271016453505</v>
+        <v>0.1549491417860319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.42897436336294</v>
+        <v>78.14483633333333</v>
       </c>
       <c r="H3">
-        <v>5.42897436336294</v>
+        <v>234.434509</v>
       </c>
       <c r="I3">
-        <v>0.5034841601939593</v>
+        <v>0.8749092620517618</v>
       </c>
       <c r="J3">
-        <v>0.5034841601939593</v>
+        <v>0.8749092620517619</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2713519958045</v>
+        <v>11.467549</v>
       </c>
       <c r="N3">
-        <v>11.2713519958045</v>
+        <v>34.402647</v>
       </c>
       <c r="O3">
-        <v>0.1833891406772468</v>
+        <v>0.1691437102639353</v>
       </c>
       <c r="P3">
-        <v>0.1833891406772468</v>
+        <v>0.1691437102639352</v>
       </c>
       <c r="Q3">
-        <v>61.19188102566233</v>
+        <v>896.1297397494803</v>
       </c>
       <c r="R3">
-        <v>61.19188102566233</v>
+        <v>8065.167657745323</v>
       </c>
       <c r="S3">
-        <v>0.09233352748257544</v>
+        <v>0.1479853987277166</v>
       </c>
       <c r="T3">
-        <v>0.09233352748257544</v>
+        <v>0.1479853987277166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.42897436336294</v>
+        <v>78.14483633333333</v>
       </c>
       <c r="H4">
-        <v>5.42897436336294</v>
+        <v>234.434509</v>
       </c>
       <c r="I4">
-        <v>0.5034841601939593</v>
+        <v>0.8749092620517618</v>
       </c>
       <c r="J4">
-        <v>0.5034841601939593</v>
+        <v>0.8749092620517619</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>42.8055656802341</v>
+        <v>0.1077713333333333</v>
       </c>
       <c r="N4">
-        <v>42.8055656802341</v>
+        <v>0.323314</v>
       </c>
       <c r="O4">
-        <v>0.6964626700704216</v>
+        <v>0.001589602379731826</v>
       </c>
       <c r="P4">
-        <v>0.6964626700704216</v>
+        <v>0.001589602379731826</v>
       </c>
       <c r="Q4">
-        <v>232.3903186872394</v>
+        <v>8.421773204758443</v>
       </c>
       <c r="R4">
-        <v>232.3903186872394</v>
+        <v>75.795958842826</v>
       </c>
       <c r="S4">
-        <v>0.3506579225468487</v>
+        <v>0.001390757845006896</v>
       </c>
       <c r="T4">
-        <v>0.3506579225468487</v>
+        <v>0.001390757845006896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.238191054816023</v>
+        <v>78.14483633333333</v>
       </c>
       <c r="H5">
-        <v>0.238191054816023</v>
+        <v>234.434509</v>
       </c>
       <c r="I5">
-        <v>0.02208988570825958</v>
+        <v>0.8749092620517618</v>
       </c>
       <c r="J5">
-        <v>0.02208988570825958</v>
+        <v>0.8749092620517619</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.38447504427172</v>
+        <v>44.21517</v>
       </c>
       <c r="N5">
-        <v>7.38447504427172</v>
+        <v>132.64551</v>
       </c>
       <c r="O5">
-        <v>0.1201481892523316</v>
+        <v>0.6521635882044753</v>
       </c>
       <c r="P5">
-        <v>0.1201481892523316</v>
+        <v>0.6521635882044752</v>
       </c>
       <c r="Q5">
-        <v>1.758915900057679</v>
+        <v>3455.18722310051</v>
       </c>
       <c r="R5">
-        <v>1.758915900057679</v>
+        <v>31096.68500790459</v>
       </c>
       <c r="S5">
-        <v>0.002654059768638347</v>
+        <v>0.5705839636930066</v>
       </c>
       <c r="T5">
-        <v>0.002654059768638347</v>
+        <v>0.5705839636930065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.238191054816023</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H6">
-        <v>0.238191054816023</v>
+        <v>16.558955</v>
       </c>
       <c r="I6">
-        <v>0.02208988570825958</v>
+        <v>0.06179799706620124</v>
       </c>
       <c r="J6">
-        <v>0.02208988570825958</v>
+        <v>0.06179799706620125</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.2713519958045</v>
+        <v>12.007177</v>
       </c>
       <c r="N6">
-        <v>11.2713519958045</v>
+        <v>36.021531</v>
       </c>
       <c r="O6">
-        <v>0.1833891406772468</v>
+        <v>0.1771030991518578</v>
       </c>
       <c r="P6">
-        <v>0.1833891406772468</v>
+        <v>0.1771030991518577</v>
       </c>
       <c r="Q6">
-        <v>2.68473522108336</v>
+        <v>66.27543454001164</v>
       </c>
       <c r="R6">
-        <v>2.68473522108336</v>
+        <v>596.4789108601049</v>
       </c>
       <c r="S6">
-        <v>0.004051045157696319</v>
+        <v>0.01094461680180165</v>
       </c>
       <c r="T6">
-        <v>0.004051045157696319</v>
+        <v>0.01094461680180165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.238191054816023</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H7">
-        <v>0.238191054816023</v>
+        <v>16.558955</v>
       </c>
       <c r="I7">
-        <v>0.02208988570825958</v>
+        <v>0.06179799706620124</v>
       </c>
       <c r="J7">
-        <v>0.02208988570825958</v>
+        <v>0.06179799706620125</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8055656802341</v>
+        <v>11.467549</v>
       </c>
       <c r="N7">
-        <v>42.8055656802341</v>
+        <v>34.402647</v>
       </c>
       <c r="O7">
-        <v>0.6964626700704216</v>
+        <v>0.1691437102639353</v>
       </c>
       <c r="P7">
-        <v>0.6964626700704216</v>
+        <v>0.1691437102639352</v>
       </c>
       <c r="Q7">
-        <v>10.19590284137151</v>
+        <v>63.29687595043166</v>
       </c>
       <c r="R7">
-        <v>10.19590284137151</v>
+        <v>569.671883553885</v>
       </c>
       <c r="S7">
-        <v>0.01538478078192492</v>
+        <v>0.01045274251065706</v>
       </c>
       <c r="T7">
-        <v>0.01538478078192492</v>
+        <v>0.01045274251065706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.11564522927321</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H8">
-        <v>5.11564522927321</v>
+        <v>16.558955</v>
       </c>
       <c r="I8">
-        <v>0.4744259540977811</v>
+        <v>0.06179799706620124</v>
       </c>
       <c r="J8">
-        <v>0.4744259540977811</v>
+        <v>0.06179799706620125</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>7.38447504427172</v>
+        <v>0.1077713333333333</v>
       </c>
       <c r="N8">
-        <v>7.38447504427172</v>
+        <v>0.323314</v>
       </c>
       <c r="O8">
-        <v>0.1201481892523316</v>
+        <v>0.001589602379731826</v>
       </c>
       <c r="P8">
-        <v>0.1201481892523316</v>
+        <v>0.001589602379731826</v>
       </c>
       <c r="Q8">
-        <v>37.7763545309157</v>
+        <v>0.5948602196522221</v>
       </c>
       <c r="R8">
-        <v>37.7763545309157</v>
+        <v>5.353741976869999</v>
       </c>
       <c r="S8">
-        <v>0.05700141931915818</v>
+        <v>9.823424319909389E-05</v>
       </c>
       <c r="T8">
-        <v>0.05700141931915818</v>
+        <v>9.82342431990939E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.11564522927321</v>
+        <v>5.519651666666666</v>
       </c>
       <c r="H9">
-        <v>5.11564522927321</v>
+        <v>16.558955</v>
       </c>
       <c r="I9">
-        <v>0.4744259540977811</v>
+        <v>0.06179799706620124</v>
       </c>
       <c r="J9">
-        <v>0.4744259540977811</v>
+        <v>0.06179799706620125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.2713519958045</v>
+        <v>44.21517</v>
       </c>
       <c r="N9">
-        <v>11.2713519958045</v>
+        <v>132.64551</v>
       </c>
       <c r="O9">
-        <v>0.1833891406772468</v>
+        <v>0.6521635882044753</v>
       </c>
       <c r="P9">
-        <v>0.1833891406772468</v>
+        <v>0.6521635882044752</v>
       </c>
       <c r="Q9">
-        <v>57.66023806479636</v>
+        <v>244.0523367824499</v>
       </c>
       <c r="R9">
-        <v>57.66023806479636</v>
+        <v>2196.47103104205</v>
       </c>
       <c r="S9">
-        <v>0.087004568036975</v>
+        <v>0.04030240351054343</v>
       </c>
       <c r="T9">
-        <v>0.087004568036975</v>
+        <v>0.04030240351054344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2717503333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.8152509999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.003042515599940795</v>
+      </c>
+      <c r="J10">
+        <v>0.003042515599940796</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.007177</v>
+      </c>
+      <c r="N10">
+        <v>36.021531</v>
+      </c>
+      <c r="O10">
+        <v>0.1771030991518578</v>
+      </c>
+      <c r="P10">
+        <v>0.1771030991518577</v>
+      </c>
+      <c r="Q10">
+        <v>3.262954352142333</v>
+      </c>
+      <c r="R10">
+        <v>29.366589169281</v>
+      </c>
+      <c r="S10">
+        <v>0.0005388389419673887</v>
+      </c>
+      <c r="T10">
+        <v>0.0005388389419673887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2717503333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.8152509999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.003042515599940795</v>
+      </c>
+      <c r="J11">
+        <v>0.003042515599940796</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.467549</v>
+      </c>
+      <c r="N11">
+        <v>34.402647</v>
+      </c>
+      <c r="O11">
+        <v>0.1691437102639353</v>
+      </c>
+      <c r="P11">
+        <v>0.1691437102639352</v>
+      </c>
+      <c r="Q11">
+        <v>3.116310263266333</v>
+      </c>
+      <c r="R11">
+        <v>28.046792369397</v>
+      </c>
+      <c r="S11">
+        <v>0.0005146223771098891</v>
+      </c>
+      <c r="T11">
+        <v>0.0005146223771098891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2717503333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.8152509999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.003042515599940795</v>
+      </c>
+      <c r="J12">
+        <v>0.003042515599940796</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1077713333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.323314</v>
+      </c>
+      <c r="O12">
+        <v>0.001589602379731826</v>
+      </c>
+      <c r="P12">
+        <v>0.001589602379731826</v>
+      </c>
+      <c r="Q12">
+        <v>0.02928689575711111</v>
+      </c>
+      <c r="R12">
+        <v>0.263582061814</v>
+      </c>
+      <c r="S12">
+        <v>4.836390038037092E-06</v>
+      </c>
+      <c r="T12">
+        <v>4.836390038037092E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2717503333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.8152509999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.003042515599940795</v>
+      </c>
+      <c r="J13">
+        <v>0.003042515599940796</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>44.21517</v>
+      </c>
+      <c r="N13">
+        <v>132.64551</v>
+      </c>
+      <c r="O13">
+        <v>0.6521635882044753</v>
+      </c>
+      <c r="P13">
+        <v>0.6521635882044752</v>
+      </c>
+      <c r="Q13">
+        <v>12.01548718589</v>
+      </c>
+      <c r="R13">
+        <v>108.13938467301</v>
+      </c>
+      <c r="S13">
+        <v>0.001984217890825481</v>
+      </c>
+      <c r="T13">
+        <v>0.001984217890825481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.381408333333333</v>
+      </c>
+      <c r="H14">
+        <v>16.144225</v>
+      </c>
+      <c r="I14">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="J14">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.007177</v>
+      </c>
+      <c r="N14">
+        <v>36.021531</v>
+      </c>
+      <c r="O14">
+        <v>0.1771030991518578</v>
+      </c>
+      <c r="P14">
+        <v>0.1771030991518577</v>
+      </c>
+      <c r="Q14">
+        <v>64.61552236760832</v>
+      </c>
+      <c r="R14">
+        <v>581.5397013084748</v>
+      </c>
+      <c r="S14">
+        <v>0.01067050162205685</v>
+      </c>
+      <c r="T14">
+        <v>0.01067050162205685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.381408333333333</v>
+      </c>
+      <c r="H15">
+        <v>16.144225</v>
+      </c>
+      <c r="I15">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="J15">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.467549</v>
+      </c>
+      <c r="N15">
+        <v>34.402647</v>
+      </c>
+      <c r="O15">
+        <v>0.1691437102639353</v>
+      </c>
+      <c r="P15">
+        <v>0.1691437102639352</v>
+      </c>
+      <c r="Q15">
+        <v>61.71156375150833</v>
+      </c>
+      <c r="R15">
+        <v>555.404073763575</v>
+      </c>
+      <c r="S15">
+        <v>0.0101909466484517</v>
+      </c>
+      <c r="T15">
+        <v>0.0101909466484517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.11564522927321</v>
-      </c>
-      <c r="H10">
-        <v>5.11564522927321</v>
-      </c>
-      <c r="I10">
-        <v>0.4744259540977811</v>
-      </c>
-      <c r="J10">
-        <v>0.4744259540977811</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>42.8055656802341</v>
-      </c>
-      <c r="N10">
-        <v>42.8055656802341</v>
-      </c>
-      <c r="O10">
-        <v>0.6964626700704216</v>
-      </c>
-      <c r="P10">
-        <v>0.6964626700704216</v>
-      </c>
-      <c r="Q10">
-        <v>218.9780878584306</v>
-      </c>
-      <c r="R10">
-        <v>218.9780878584306</v>
-      </c>
-      <c r="S10">
-        <v>0.3304199667416479</v>
-      </c>
-      <c r="T10">
-        <v>0.3304199667416479</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.381408333333333</v>
+      </c>
+      <c r="H16">
+        <v>16.144225</v>
+      </c>
+      <c r="I16">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="J16">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1077713333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.323314</v>
+      </c>
+      <c r="O16">
+        <v>0.001589602379731826</v>
+      </c>
+      <c r="P16">
+        <v>0.001589602379731826</v>
+      </c>
+      <c r="Q16">
+        <v>0.5799615512944444</v>
+      </c>
+      <c r="R16">
+        <v>5.21965396165</v>
+      </c>
+      <c r="S16">
+        <v>9.577390148779871E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.577390148779871E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.381408333333333</v>
+      </c>
+      <c r="H17">
+        <v>16.144225</v>
+      </c>
+      <c r="I17">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="J17">
+        <v>0.06025022528209618</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.21517</v>
+      </c>
+      <c r="N17">
+        <v>132.64551</v>
+      </c>
+      <c r="O17">
+        <v>0.6521635882044753</v>
+      </c>
+      <c r="P17">
+        <v>0.6521635882044752</v>
+      </c>
+      <c r="Q17">
+        <v>237.93988429775</v>
+      </c>
+      <c r="R17">
+        <v>2141.45895867975</v>
+      </c>
+      <c r="S17">
+        <v>0.03929300311009984</v>
+      </c>
+      <c r="T17">
+        <v>0.03929300311009983</v>
       </c>
     </row>
   </sheetData>
